--- a/BasicConcepts/LoginTest/LoginEquivalenceTable.xlsx
+++ b/BasicConcepts/LoginTest/LoginEquivalenceTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c++Code\TestBible\BasicConcepts\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c++Code\TestBible\BasicConcepts\LoginTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F6A00-799B-4DE3-8CBF-ACB2351C9E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36068312-186C-4B58-A856-E1702DD57826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="2724" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{FE17B4BB-4513-48D7-9609-127CB290E3BD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{FE17B4BB-4513-48D7-9609-127CB290E3BD}"/>
   </bookViews>
   <sheets>
     <sheet name="账号输入框" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>输入条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,42 +65,6 @@
   </si>
   <si>
     <t>空格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边界值：7、8、12、13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7位（数字+密码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13位（数字+密码）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9位（数字、字母、数字+汉字、数字+特殊字符、特殊字符）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入密码：9位（数字+字母）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与账号不匹配的密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +432,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -538,10 +492,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC32543-1F3D-4F65-A81E-F09D6D8776EF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -550,63 +504,7 @@
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
